--- a/data/trans_camb/CoPsoQ_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/CoPsoQ_R2-Edad-trans_camb.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-14.20689810709456</v>
+        <v>-15.56351728796019</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-29.76782414172714</v>
+        <v>-26.89104761546347</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-14.04822060762465</v>
+        <v>-13.03349842215905</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-27.59520419157829</v>
+        <v>-29.03667337305355</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-9.783188589455664</v>
+        <v>-10.21712280264293</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-22.100017478905</v>
+        <v>-20.75606746340891</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>16.87642973530458</v>
+        <v>16.6610176404246</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>33.24755480720822</v>
+        <v>35.00292304108685</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13.15887246478684</v>
+        <v>16.47637901751113</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>23.68526124447038</v>
+        <v>22.31296041442488</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>12.27007739755825</v>
+        <v>10.57894688983874</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>20.09774467468434</v>
+        <v>20.4643898376128</v>
       </c>
     </row>
     <row r="7">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2676262134441255</v>
+        <v>-0.2880915211890848</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.5609602589930971</v>
+        <v>-0.5390365086447317</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2179195609035245</v>
+        <v>-0.2015676245387548</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.4594704317970365</v>
+        <v>-0.4761755934019641</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1766265929168476</v>
+        <v>-0.1770380440400483</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4058551873421576</v>
+        <v>-0.3834500168466332</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.4230941874912854</v>
+        <v>0.4306944801349579</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.7829947190818128</v>
+        <v>0.8480126550587429</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.2670182359498677</v>
+        <v>0.3457658679821052</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.4683330472095515</v>
+        <v>0.4437556434518574</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2602404621995922</v>
+        <v>0.221027837169527</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4230029575944763</v>
+        <v>0.4236474981480764</v>
       </c>
     </row>
     <row r="10">
@@ -772,19 +772,19 @@
         <v>-2.271131182146591</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>-20.33721253323493</v>
+        <v>-20.33721253323492</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>2.05985183120081</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-12.25816735004159</v>
+        <v>-12.2581673500416</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>-0.4593625426243197</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-16.88851052645165</v>
+        <v>-16.88851052645166</v>
       </c>
     </row>
     <row r="11">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-9.431945471738976</v>
+        <v>-9.561201468776337</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-33.00156577634745</v>
+        <v>-33.69414526455147</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-6.160753643090714</v>
+        <v>-5.967946609597108</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-24.56820948025087</v>
+        <v>-23.89179372054074</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-6.126631277511795</v>
+        <v>-6.374741655133724</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-25.98387146884467</v>
+        <v>-25.41236586794955</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.143730589602226</v>
+        <v>5.044982957727751</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-6.569795955089274</v>
+        <v>-7.09611181634089</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10.38794681185617</v>
+        <v>10.00716902044891</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-0.008215661554132276</v>
+        <v>-0.2876092038329003</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>5.775568906806411</v>
+        <v>4.856935372569215</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-7.242120184107657</v>
+        <v>-7.317682034046786</v>
       </c>
     </row>
     <row r="13">
@@ -856,13 +856,13 @@
         <v>0.03735495322037708</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>-0.2222991289919228</v>
+        <v>-0.2222991289919231</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.007949862614766353</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.292277506316245</v>
+        <v>-0.2922775063162452</v>
       </c>
     </row>
     <row r="14">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1494145871784356</v>
+        <v>-0.1528121950669203</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.5416491016148998</v>
+        <v>-0.5365419382242598</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1053706586596022</v>
+        <v>-0.09964874462474646</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.426102267929478</v>
+        <v>-0.4253621190694827</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.09962227018329166</v>
+        <v>-0.1064041573659336</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4479038061034804</v>
+        <v>-0.4251576581022194</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.09109002280343485</v>
+        <v>0.08964712945214082</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.1170628877117927</v>
+        <v>-0.1204884268964617</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.2060870263775686</v>
+        <v>0.199703743836399</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.00785713831132601</v>
+        <v>-0.005295279130619851</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1070745183829028</v>
+        <v>0.08677415506426479</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.1325091601721857</v>
+        <v>-0.1254308650482463</v>
       </c>
     </row>
     <row r="16">
@@ -944,7 +944,7 @@
         <v>-2.86831914293918</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-15.36784001679197</v>
+        <v>-15.36784001679198</v>
       </c>
     </row>
     <row r="17">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-10.81517685089275</v>
+        <v>-10.55710908773834</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-32.65770931301824</v>
+        <v>-33.29324855630475</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-10.03560573707984</v>
+        <v>-9.38775127168924</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-17.23485066269927</v>
+        <v>-17.70732614474489</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-7.777704620710105</v>
+        <v>-8.185202564798098</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-22.43500311615096</v>
+        <v>-22.43315303195164</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.25776554746746</v>
+        <v>2.908068802869359</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-10.48084667498059</v>
+        <v>-11.11407819687301</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.052758164725918</v>
+        <v>7.157964874254809</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.991104006498756</v>
+        <v>4.111204083461708</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.727207873087197</v>
+        <v>2.799838124063956</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-7.376087973033522</v>
+        <v>-8.170881978243409</v>
       </c>
     </row>
     <row r="19">
@@ -1022,7 +1022,7 @@
         <v>-0.04887457761747591</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.2618595254864141</v>
+        <v>-0.2618595254864143</v>
       </c>
     </row>
     <row r="20">
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1716684871716801</v>
+        <v>-0.1692517367920641</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.5332240885418232</v>
+        <v>-0.530916844038587</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1643060483819265</v>
+        <v>-0.155395028930002</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2935037954253613</v>
+        <v>-0.2947560564358091</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1286686636617548</v>
+        <v>-0.1345023717333016</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3750974394083033</v>
+        <v>-0.3707162006090682</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.05699520283287239</v>
+        <v>0.05137259077081605</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.1875714839382173</v>
+        <v>-0.1895666247059404</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.1360121622754139</v>
+        <v>0.1363753617104953</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.05362578589049703</v>
+        <v>0.0775539206351928</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.04788716472208068</v>
+        <v>0.04805859266664506</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.1317096726888912</v>
+        <v>-0.1398734459403438</v>
       </c>
     </row>
     <row r="22">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-12.4654177513267</v>
+        <v>-11.80377706384879</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-30.75142863094377</v>
+        <v>-30.49110168959129</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-5.87694969870138</v>
+        <v>-7.502481256554856</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-19.71043527488284</v>
+        <v>-20.63711225204727</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-7.460816316334043</v>
+        <v>-7.922648924171359</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-23.41587685247697</v>
+        <v>-22.90946440861842</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.018451453211024</v>
+        <v>3.729057209249961</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-10.06101669931344</v>
+        <v>-10.25059125133331</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>13.67838881635202</v>
+        <v>12.37658572243706</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.8342375405573307</v>
+        <v>0.1116760910124552</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4.739622462129979</v>
+        <v>4.345920330305191</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-8.163289467133243</v>
+        <v>-8.710116547577067</v>
       </c>
     </row>
     <row r="25">
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2037629798492473</v>
+        <v>-0.1957859178066657</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.5004071733108022</v>
+        <v>-0.5129473783369557</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1057568792771142</v>
+        <v>-0.125912799132192</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.3517629350995567</v>
+        <v>-0.3743171425449542</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1268346571773172</v>
+        <v>-0.1370251807888584</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.411645478875162</v>
+        <v>-0.4004738826676776</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.07629263120395129</v>
+        <v>0.06975756287696282</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.1806500962820235</v>
+        <v>-0.1832369172669673</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.2958923800643436</v>
+        <v>0.2714388748283078</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.01698339113626506</v>
+        <v>-0.005201050870097108</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.08909484422527361</v>
+        <v>0.08511494917567064</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.1615485061385103</v>
+        <v>-0.1680881720216549</v>
       </c>
     </row>
     <row r="28">
@@ -1258,13 +1258,13 @@
         <v>1.641721929218365</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>4.899312865009797</v>
+        <v>4.899312865009775</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>-2.715527495789727</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-7.447677299279193</v>
+        <v>-7.447677299279187</v>
       </c>
     </row>
     <row r="29">
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-15.59664077099807</v>
+        <v>-14.83609566511965</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-27.4634550702442</v>
+        <v>-27.0576883866081</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-14.12541842452508</v>
+        <v>-13.90837428384128</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-11.71226118231636</v>
+        <v>-12.05571324561539</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-11.68106193515316</v>
+        <v>-12.89279751491886</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-17.67430818530935</v>
+        <v>-18.77698771820666</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>7.228661248600739</v>
+        <v>7.678815170791044</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.551957516644629</v>
+        <v>0.1571938020572854</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>18.15094633087704</v>
+        <v>18.17741267729522</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>23.28214207150074</v>
+        <v>22.36598244843262</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>7.041437134315045</v>
+        <v>7.215803296762028</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>3.111301644911914</v>
+        <v>3.668618850720132</v>
       </c>
     </row>
     <row r="31">
@@ -1330,19 +1330,19 @@
         <v>-0.07351769613863648</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>-0.2398964883676152</v>
+        <v>-0.2398964883676151</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>0.03389084843209105</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>0.1011388510894135</v>
+        <v>0.101138851089413</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>-0.04951378270505046</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.1357978057764441</v>
+        <v>-0.135797805776444</v>
       </c>
     </row>
     <row r="32">
@@ -1353,22 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2531531355726434</v>
+        <v>-0.2358958321088987</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.4449721860165009</v>
+        <v>-0.4496013520282567</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2527273716478566</v>
+        <v>-0.2434139227083119</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.2099511251230147</v>
+        <v>-0.2165915622646936</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1996892502961358</v>
+        <v>-0.2172760657044334</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.305408485496267</v>
+        <v>-0.3174653286925878</v>
       </c>
     </row>
     <row r="33">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1407931655818008</v>
+        <v>0.1481496942854228</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.04510501926293765</v>
+        <v>0.004200691054827461</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.4770304373555035</v>
+        <v>0.4966939088183139</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.622744037577653</v>
+        <v>0.570117405407748</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1410107265686279</v>
+        <v>0.1499619800636436</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.06204311813697159</v>
+        <v>0.07929268369148906</v>
       </c>
     </row>
     <row r="34">
@@ -1418,13 +1418,13 @@
         <v>0.8298477705573459</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>-8.239211413688357</v>
+        <v>-8.239211413688363</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>-1.677147505142307</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-14.12154502993145</v>
+        <v>-14.12154502993144</v>
       </c>
     </row>
     <row r="35">
@@ -1435,22 +1435,22 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-7.055479504430121</v>
+        <v>-6.839684495663458</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-24.79427350572375</v>
+        <v>-24.23368594677924</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-3.888542743644757</v>
+        <v>-3.515379985297443</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-14.68964532636131</v>
+        <v>-13.53007683258175</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-4.911252252084349</v>
+        <v>-4.483505815804632</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-18.44993309731659</v>
+        <v>-17.93779617339913</v>
       </c>
     </row>
     <row r="36">
@@ -1461,22 +1461,22 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>0.2883752933930088</v>
+        <v>0.6546052387816298</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>-12.56402667782401</v>
+        <v>-12.34872033286951</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>5.311821280738668</v>
+        <v>5.628392623099194</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>-2.780219168129322</v>
+        <v>-2.577365656624906</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>1.243597110107899</v>
+        <v>1.337234300485262</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-10.24885886843489</v>
+        <v>-9.961262715174961</v>
       </c>
     </row>
     <row r="37">
@@ -1490,19 +1490,19 @@
         <v>-0.05758101723920725</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>-0.3183758216646825</v>
+        <v>-0.3183758216646824</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>0.01527380875757614</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>-0.1516472585826128</v>
+        <v>-0.1516472585826129</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>-0.02957825578442411</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.249048261817099</v>
+        <v>-0.2490482618170988</v>
       </c>
     </row>
     <row r="38">
@@ -1513,22 +1513,22 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.1175790412205048</v>
+        <v>-0.1132422947562476</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.4197461758547619</v>
+        <v>-0.4073571304473841</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.06779966299147135</v>
+        <v>-0.06239273115914028</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.2586083908549655</v>
+        <v>-0.241069286939567</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.08322134105862188</v>
+        <v>-0.07690681030702681</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.3171622431873322</v>
+        <v>-0.3137974886877652</v>
       </c>
     </row>
     <row r="39">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.005020926538946749</v>
+        <v>0.01163386576826247</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>-0.2194271226312442</v>
+        <v>-0.2164796818253255</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.1012521272503888</v>
+        <v>0.1075619361955191</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>-0.05163415930329423</v>
+        <v>-0.04813086795335494</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.02256371355792044</v>
+        <v>0.02487361922579345</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.1830870962130983</v>
+        <v>-0.1787838083094914</v>
       </c>
     </row>
     <row r="40">
